--- a/Data/data_example.xlsx
+++ b/Data/data_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evlan\Documents\GitHub\glmnet\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FD0039-C4D1-487A-A1D7-AE62CBBD1580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1895CFE7-7AA0-48EE-B1F8-DE84F37511CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="5610" windowWidth="18030" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="150" windowWidth="16245" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pima_npx_pgml_original" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="pima_npx_pgml_original">pima_npx_pgml_original!$A$1:$AI$163</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -991,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,6 +1161,10 @@
       <c r="H2">
         <v>81</v>
       </c>
+      <c r="I2">
+        <f>K2-20</f>
+        <v>35.638603696098563</v>
+      </c>
       <c r="J2">
         <v>26.21630506</v>
       </c>
@@ -1252,6 +1269,10 @@
       <c r="H3">
         <v>74</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">K3-20</f>
+        <v>22.097193702943187</v>
+      </c>
       <c r="J3">
         <v>34.086317719999997</v>
       </c>
@@ -1347,6 +1368,10 @@
       <c r="E4">
         <v>8.9993155373032163</v>
       </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>34.020533880903493</v>
+      </c>
       <c r="K4">
         <v>54.020533880903493</v>
       </c>
@@ -1448,6 +1473,10 @@
       <c r="H5">
         <v>81</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>27.460643394934976</v>
+      </c>
       <c r="J5">
         <v>26.996691869999999</v>
       </c>
@@ -1552,6 +1581,10 @@
       <c r="H6">
         <v>80</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>27.101984941820668</v>
+      </c>
       <c r="J6">
         <v>52.660005400000003</v>
       </c>
@@ -1656,6 +1689,10 @@
       <c r="H7">
         <v>83</v>
       </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>22.683093771389458</v>
+      </c>
       <c r="J7">
         <v>32.888888889999997</v>
       </c>
@@ -1760,6 +1797,10 @@
       <c r="H8">
         <v>90</v>
       </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>42.814510609171798</v>
+      </c>
       <c r="J8">
         <v>32.255636269999997</v>
       </c>
@@ -1864,6 +1905,10 @@
       <c r="H9">
         <v>79</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>29.472963723477072</v>
+      </c>
       <c r="J9">
         <v>34.726353359999997</v>
       </c>
@@ -1968,6 +2013,10 @@
       <c r="H10">
         <v>94</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>39.025325119780973</v>
+      </c>
       <c r="J10">
         <v>30.462962959999999</v>
       </c>
@@ -2063,6 +2112,10 @@
       <c r="E11">
         <v>0.91991786447638602</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>14.143737166324435</v>
+      </c>
       <c r="K11">
         <v>34.143737166324435</v>
       </c>
@@ -2161,6 +2214,10 @@
       <c r="H12">
         <v>86</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>42.387405886379192</v>
+      </c>
       <c r="J12">
         <v>40.989144629999998</v>
       </c>
@@ -2256,6 +2313,10 @@
       <c r="E13">
         <v>2.97056810403833</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>25.333333333333336</v>
+      </c>
       <c r="K13">
         <v>45.333333333333336</v>
       </c>
@@ -2357,6 +2418,10 @@
       <c r="H14">
         <v>67</v>
       </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>35.66050650239562</v>
+      </c>
       <c r="J14">
         <v>46.802748049999998</v>
       </c>
@@ -2458,6 +2523,10 @@
       <c r="H15">
         <v>63</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>33.585215605749489</v>
+      </c>
       <c r="J15">
         <v>51.523760330000002</v>
       </c>
@@ -2556,6 +2625,10 @@
       <c r="F16">
         <v>5.8124572210814511</v>
       </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>21.138945927446954</v>
+      </c>
       <c r="K16">
         <v>41.138945927446954</v>
       </c>
@@ -2654,6 +2727,10 @@
       <c r="H17">
         <v>76</v>
       </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>26.636550308008211</v>
+      </c>
       <c r="J17">
         <v>31.116382139999999</v>
       </c>
@@ -2758,6 +2835,10 @@
       <c r="H18">
         <v>83</v>
       </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>41.300479123887747</v>
+      </c>
       <c r="J18">
         <v>31.897683220000001</v>
       </c>
@@ -2859,6 +2940,10 @@
       <c r="H19">
         <v>87</v>
       </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>13.982203969883635</v>
+      </c>
       <c r="J19">
         <v>50.058338669999998</v>
       </c>
@@ -2954,6 +3039,10 @@
       <c r="E20">
         <v>12.11772758384668</v>
       </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>23.824777549623548</v>
+      </c>
       <c r="K20">
         <v>43.824777549623548</v>
       </c>
@@ -3055,6 +3144,10 @@
       <c r="H21">
         <v>93</v>
       </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>32.314852840520189</v>
+      </c>
       <c r="J21">
         <v>26.856575960000001</v>
       </c>
@@ -3159,6 +3252,10 @@
       <c r="H22">
         <v>89</v>
       </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>39.854893908282001</v>
+      </c>
       <c r="J22">
         <v>30.227543130000001</v>
       </c>
@@ -3263,6 +3360,10 @@
       <c r="H23">
         <v>88</v>
       </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>24.670773442847363</v>
+      </c>
       <c r="J23">
         <v>40.258742910000002</v>
       </c>
@@ -3358,6 +3459,10 @@
       <c r="E24">
         <v>12.038329911019849</v>
       </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>41.837097878165643</v>
+      </c>
       <c r="K24">
         <v>61.837097878165643</v>
       </c>
@@ -3450,6 +3555,10 @@
       <c r="E25">
         <v>7.0472279260780288</v>
       </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>34.817248459958932</v>
+      </c>
       <c r="K25">
         <v>54.817248459958932</v>
       </c>
@@ -3545,6 +3654,10 @@
       <c r="F26">
         <v>3.0061601642710474</v>
       </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>17.379876796714576</v>
+      </c>
       <c r="K26">
         <v>37.379876796714576</v>
       </c>
@@ -3637,6 +3750,10 @@
       <c r="E27">
         <v>1.5989048596851472</v>
       </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>5.6399726214921273</v>
+      </c>
       <c r="K27">
         <v>25.639972621492127</v>
       </c>
@@ -3738,6 +3855,10 @@
       <c r="H28">
         <v>84</v>
       </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>4.602327173169062</v>
+      </c>
       <c r="J28">
         <v>42.920147729999996</v>
       </c>
@@ -3842,6 +3963,10 @@
       <c r="H29">
         <v>95</v>
       </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>24.635181382614647</v>
+      </c>
       <c r="J29">
         <v>22.51606979</v>
       </c>
@@ -3946,6 +4071,10 @@
       <c r="H30">
         <v>82</v>
       </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>34.7460643394935</v>
+      </c>
       <c r="J30">
         <v>32.6470117</v>
       </c>
@@ -4050,6 +4179,10 @@
       <c r="H31">
         <v>82</v>
       </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>39.526351813826146</v>
+      </c>
       <c r="J31">
         <v>23.15242297</v>
       </c>
@@ -4154,6 +4287,10 @@
       <c r="H32">
         <v>73</v>
       </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>31.526351813826146</v>
+      </c>
       <c r="J32">
         <v>30.78939909</v>
       </c>
@@ -4255,6 +4392,10 @@
       <c r="H33">
         <v>67</v>
       </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>33.483915126625597</v>
+      </c>
       <c r="J33">
         <v>23.703651829999998</v>
       </c>
@@ -4356,6 +4497,10 @@
       <c r="H34">
         <v>87</v>
       </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>46.880219028062967</v>
+      </c>
       <c r="J34">
         <v>31.484375</v>
       </c>
@@ -4460,6 +4605,10 @@
       <c r="H35">
         <v>73</v>
       </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>43.920602327173171</v>
+      </c>
       <c r="J35">
         <v>21.502179940000001</v>
       </c>
@@ -4564,6 +4713,10 @@
       <c r="H36">
         <v>77</v>
       </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>26.228610540725533</v>
+      </c>
       <c r="J36">
         <v>33.774666889999999</v>
       </c>
@@ -4668,6 +4821,10 @@
       <c r="H37">
         <v>85</v>
       </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>31.901437371663242</v>
+      </c>
       <c r="J37">
         <v>66.143664490000006</v>
       </c>
@@ -4772,6 +4929,10 @@
       <c r="H38">
         <v>70</v>
       </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>41.557837097878163</v>
+      </c>
       <c r="J38">
         <v>32.502667279999997</v>
       </c>
@@ -4873,6 +5034,10 @@
       <c r="H39">
         <v>82</v>
       </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>28.350444900752912</v>
+      </c>
       <c r="J39">
         <v>36.302611779999999</v>
       </c>
@@ -4968,6 +5133,10 @@
       <c r="E40">
         <v>7.3237508555783712</v>
       </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>32.884325804243666</v>
+      </c>
       <c r="K40">
         <v>52.884325804243666</v>
       </c>
@@ -5063,6 +5232,10 @@
       <c r="F41">
         <v>1.5030800821355237</v>
       </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>24.780287474332646</v>
+      </c>
       <c r="K41">
         <v>44.780287474332646</v>
       </c>
@@ -5155,6 +5328,10 @@
       <c r="E42">
         <v>7.4715947980835047</v>
       </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>43.622176591375769</v>
+      </c>
       <c r="K42">
         <v>63.622176591375769</v>
       </c>
@@ -5253,6 +5430,10 @@
       <c r="H43">
         <v>78</v>
       </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>42.674880219028061</v>
+      </c>
       <c r="J43">
         <v>44.559449149999999</v>
       </c>
@@ -5357,6 +5538,10 @@
       <c r="H44">
         <v>86</v>
       </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>18.313483915126625</v>
+      </c>
       <c r="J44">
         <v>31.64556962</v>
       </c>
@@ -5461,6 +5646,10 @@
       <c r="H45">
         <v>81</v>
       </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>42.086242299794662</v>
+      </c>
       <c r="J45">
         <v>24.500838290000001</v>
       </c>
@@ -5562,6 +5751,10 @@
       <c r="H46">
         <v>82</v>
       </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>13.043121149897331</v>
+      </c>
       <c r="J46">
         <v>35.561224490000001</v>
       </c>
@@ -5657,6 +5850,10 @@
       <c r="E47">
         <v>12.035592060232718</v>
       </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>38.461327857631758</v>
+      </c>
       <c r="K47">
         <v>58.461327857631758</v>
       </c>
@@ -5758,6 +5955,10 @@
       <c r="H48">
         <v>85</v>
       </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>21.160848733744011</v>
+      </c>
       <c r="J48">
         <v>50.46857885</v>
       </c>
@@ -5859,6 +6060,10 @@
       <c r="H49">
         <v>73</v>
       </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>22.910335386721428</v>
+      </c>
       <c r="J49">
         <v>35.120335320000002</v>
       </c>
@@ -5960,6 +6165,10 @@
       <c r="H50">
         <v>89</v>
       </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>28.843258042436688</v>
+      </c>
       <c r="J50">
         <v>42.996716900000003</v>
       </c>
@@ -6061,6 +6270,10 @@
       <c r="H51">
         <v>68</v>
       </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>18.726899383983572</v>
+      </c>
       <c r="J51">
         <v>29.682975160000002</v>
       </c>
@@ -6162,6 +6375,10 @@
       <c r="H52">
         <v>76</v>
       </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>20.884325804243666</v>
+      </c>
       <c r="J52">
         <v>32.678360599999998</v>
       </c>
@@ -6257,6 +6474,10 @@
       <c r="E53">
         <v>7.1649555099247095</v>
       </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>36.501026694045173</v>
+      </c>
       <c r="K53">
         <v>56.501026694045173</v>
       </c>
@@ -6358,6 +6579,10 @@
       <c r="H54">
         <v>74</v>
       </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>12.79671457905544</v>
+      </c>
       <c r="J54">
         <v>38.404032639999997</v>
       </c>
@@ -6459,6 +6684,10 @@
       <c r="H55">
         <v>70</v>
       </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>41.549623545516766</v>
+      </c>
       <c r="J55">
         <v>49.5703125</v>
       </c>
@@ -6560,6 +6789,10 @@
       <c r="H56">
         <v>82</v>
       </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>20.815879534565369</v>
+      </c>
       <c r="J56">
         <v>37.502601460000001</v>
       </c>
@@ -6655,6 +6888,10 @@
       <c r="E57">
         <v>7.6824093086926766</v>
       </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>37.35797399041752</v>
+      </c>
       <c r="K57">
         <v>57.35797399041752</v>
       </c>
@@ -6753,6 +6990,10 @@
       <c r="H58">
         <v>80</v>
       </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>19.753593429158109</v>
+      </c>
       <c r="J58">
         <v>29.366416869999998</v>
       </c>
@@ -6854,6 +7095,10 @@
       <c r="H59">
         <v>88</v>
       </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>24.476386036960989</v>
+      </c>
       <c r="J59">
         <v>33.645785699999998</v>
       </c>
@@ -6949,6 +7194,10 @@
       <c r="E60">
         <v>4.5229295003422312</v>
       </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>32.919917864476389</v>
+      </c>
       <c r="K60">
         <v>52.919917864476389</v>
       </c>
@@ -7050,6 +7299,10 @@
       <c r="H61">
         <v>75</v>
       </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>38.535249828884325</v>
+      </c>
       <c r="J61">
         <v>32.525510199999999</v>
       </c>
@@ -7151,6 +7404,10 @@
       <c r="H62">
         <v>69</v>
       </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>34.004106776180699</v>
+      </c>
       <c r="J62">
         <v>33.469917639999998</v>
       </c>
@@ -7255,6 +7512,10 @@
       <c r="H63">
         <v>77</v>
       </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>25.322381930184804</v>
+      </c>
       <c r="J63">
         <v>45.872899930000003</v>
       </c>
@@ -7359,6 +7620,10 @@
       <c r="H64">
         <v>89</v>
       </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>25.787816563997261</v>
+      </c>
       <c r="J64">
         <v>42.622222219999998</v>
       </c>
@@ -7457,6 +7722,10 @@
       <c r="F65">
         <v>8.9363449691991779</v>
       </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>18.113620807665981</v>
+      </c>
       <c r="K65">
         <v>38.113620807665981</v>
       </c>
@@ -7558,6 +7827,10 @@
       <c r="H66">
         <v>73</v>
       </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>39.233401779603014</v>
+      </c>
       <c r="J66">
         <v>31.88770336</v>
       </c>
@@ -7653,6 +7926,10 @@
       <c r="E67">
         <v>8.0492813141683772</v>
       </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="1">K67-20</f>
+        <v>28.298425735797402</v>
+      </c>
       <c r="K67">
         <v>48.298425735797402</v>
       </c>
@@ -7745,6 +8022,10 @@
       <c r="E68">
         <v>7.0499657768651609</v>
       </c>
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>12.96646132785763</v>
+      </c>
       <c r="K68">
         <v>32.96646132785763</v>
       </c>
@@ -7846,6 +8127,10 @@
       <c r="H69">
         <v>73</v>
       </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>24.125941136208077</v>
+      </c>
       <c r="J69">
         <v>25.5859375</v>
       </c>
@@ -7947,6 +8232,10 @@
       <c r="H70">
         <v>70</v>
       </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>26.020533880903493</v>
+      </c>
       <c r="J70">
         <v>32.51453661</v>
       </c>
@@ -8042,6 +8331,10 @@
       <c r="E71">
         <v>6.1054072553045859</v>
       </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>21.204654346338124</v>
+      </c>
       <c r="K71">
         <v>41.204654346338124</v>
       </c>
@@ -8134,6 +8427,10 @@
       <c r="E72">
         <v>8.4462696783025333</v>
       </c>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>32.16974674880219</v>
+      </c>
       <c r="K72">
         <v>52.16974674880219</v>
       </c>
@@ -8232,6 +8529,10 @@
       <c r="H73">
         <v>84</v>
       </c>
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>11.006160164271048</v>
+      </c>
       <c r="J73">
         <v>22.049328509999999</v>
       </c>
@@ -8336,6 +8637,10 @@
       <c r="H74">
         <v>75</v>
       </c>
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>42.568104038329913</v>
+      </c>
       <c r="J74">
         <v>26.527797939999999</v>
       </c>
@@ -8440,6 +8745,10 @@
       <c r="H75">
         <v>109</v>
       </c>
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>23.43052703627653</v>
+      </c>
       <c r="J75">
         <v>30.185235259999999</v>
       </c>
@@ -8535,6 +8844,10 @@
       <c r="E76">
         <v>12.2984257357974</v>
       </c>
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>24.815879534565369</v>
+      </c>
       <c r="K76">
         <v>44.815879534565369</v>
       </c>
@@ -8636,6 +8949,10 @@
       <c r="H77">
         <v>64</v>
       </c>
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>12.588637919233399</v>
+      </c>
       <c r="J77">
         <v>54.602868299999997</v>
       </c>
@@ -8737,6 +9054,10 @@
       <c r="H78">
         <v>85</v>
       </c>
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>23.863107460643398</v>
+      </c>
       <c r="J78">
         <v>36.7578125</v>
       </c>
@@ -8838,6 +9159,10 @@
       <c r="H79">
         <v>82</v>
       </c>
+      <c r="I79">
+        <f t="shared" si="1"/>
+        <v>19.507186858316217</v>
+      </c>
       <c r="J79">
         <v>28.310819339999998</v>
       </c>
@@ -8942,6 +9267,10 @@
       <c r="H80">
         <v>66</v>
       </c>
+      <c r="I80">
+        <f t="shared" si="1"/>
+        <v>23.247091033538666</v>
+      </c>
       <c r="J80">
         <v>27.144168959999998</v>
       </c>
@@ -9043,6 +9372,10 @@
       <c r="H81">
         <v>79</v>
       </c>
+      <c r="I81">
+        <f t="shared" si="1"/>
+        <v>39.540041067761805</v>
+      </c>
       <c r="J81">
         <v>51.559183670000003</v>
       </c>
@@ -9144,6 +9477,10 @@
       <c r="H82">
         <v>65</v>
       </c>
+      <c r="I82">
+        <f t="shared" si="1"/>
+        <v>9.415468856947296</v>
+      </c>
       <c r="J82">
         <v>50.347222219999999</v>
       </c>
@@ -9242,6 +9579,10 @@
       <c r="F83">
         <v>1.3497604380561259</v>
       </c>
+      <c r="I83">
+        <f t="shared" si="1"/>
+        <v>45.303216974674868</v>
+      </c>
       <c r="K83">
         <v>65.303216974674868</v>
       </c>
@@ -9340,6 +9681,10 @@
       <c r="H84">
         <v>71</v>
       </c>
+      <c r="I84">
+        <f t="shared" si="1"/>
+        <v>23.811088295687888</v>
+      </c>
       <c r="J84">
         <v>26.8359375</v>
       </c>
@@ -9444,6 +9789,10 @@
       <c r="H85">
         <v>81</v>
       </c>
+      <c r="I85">
+        <f t="shared" si="1"/>
+        <v>27.800136892539356</v>
+      </c>
       <c r="J85">
         <v>28.60408163</v>
       </c>
@@ -9545,6 +9894,10 @@
       <c r="H86">
         <v>71</v>
       </c>
+      <c r="I86">
+        <f t="shared" si="1"/>
+        <v>31.446954140999317</v>
+      </c>
       <c r="J86">
         <v>29.36228169</v>
       </c>
@@ -9646,6 +9999,10 @@
       <c r="H87">
         <v>74</v>
       </c>
+      <c r="I87">
+        <f t="shared" si="1"/>
+        <v>27.885010266940455</v>
+      </c>
       <c r="J87">
         <v>42.835711320000001</v>
       </c>
@@ -9747,6 +10104,10 @@
       <c r="H88">
         <v>71</v>
       </c>
+      <c r="I88">
+        <f t="shared" si="1"/>
+        <v>26.176591375770023</v>
+      </c>
       <c r="J88">
         <v>40.777747769999998</v>
       </c>
@@ -9848,6 +10209,10 @@
       <c r="H89">
         <v>86</v>
       </c>
+      <c r="I89">
+        <f t="shared" si="1"/>
+        <v>44.416153319644081</v>
+      </c>
       <c r="J89">
         <v>36.210317459999999</v>
       </c>
@@ -9943,6 +10308,10 @@
       <c r="E90">
         <v>8.4325804243668721</v>
       </c>
+      <c r="I90">
+        <f t="shared" si="1"/>
+        <v>27.310061601642708</v>
+      </c>
       <c r="K90">
         <v>47.310061601642708</v>
       </c>
@@ -10041,6 +10410,10 @@
       <c r="H91">
         <v>76</v>
       </c>
+      <c r="I91">
+        <f t="shared" si="1"/>
+        <v>35.471594798083501</v>
+      </c>
       <c r="J91">
         <v>40.988573410000001</v>
       </c>
@@ -10142,6 +10515,10 @@
       <c r="H92">
         <v>78</v>
       </c>
+      <c r="I92">
+        <f t="shared" si="1"/>
+        <v>22.056125941136216</v>
+      </c>
       <c r="J92">
         <v>39.863879439999998</v>
       </c>
@@ -10237,6 +10614,10 @@
       <c r="E93">
         <v>8.6789869952087617</v>
       </c>
+      <c r="I93">
+        <f t="shared" si="1"/>
+        <v>31.707049965776868</v>
+      </c>
       <c r="K93">
         <v>51.707049965776868</v>
       </c>
@@ -10335,6 +10716,10 @@
       <c r="H94">
         <v>82</v>
       </c>
+      <c r="I94">
+        <f t="shared" si="1"/>
+        <v>17.963039014373713</v>
+      </c>
       <c r="J94">
         <v>32.058948340000001</v>
       </c>
@@ -10436,6 +10821,10 @@
       <c r="H95">
         <v>92</v>
       </c>
+      <c r="I95">
+        <f t="shared" si="1"/>
+        <v>22.5845311430527</v>
+      </c>
       <c r="J95">
         <v>38.501601020000003</v>
       </c>
@@ -10537,6 +10926,10 @@
       <c r="H96">
         <v>62</v>
       </c>
+      <c r="I96">
+        <f t="shared" si="1"/>
+        <v>14.776180698151954</v>
+      </c>
       <c r="J96">
         <v>30.734543729999999</v>
       </c>
@@ -10638,6 +11031,10 @@
       <c r="H97">
         <v>80</v>
       </c>
+      <c r="I97">
+        <f t="shared" si="1"/>
+        <v>35.526351813826146</v>
+      </c>
       <c r="J97">
         <v>36.025802259999999</v>
       </c>
@@ -10739,6 +11136,10 @@
       <c r="H98">
         <v>82</v>
       </c>
+      <c r="I98">
+        <f t="shared" si="1"/>
+        <v>18.748802190280628</v>
+      </c>
       <c r="J98">
         <v>32.001680610000001</v>
       </c>
@@ -10840,6 +11241,10 @@
       <c r="H99">
         <v>81</v>
       </c>
+      <c r="I99">
+        <f t="shared" si="1"/>
+        <v>24.922655715263517</v>
+      </c>
       <c r="J99">
         <v>28.5671271</v>
       </c>
@@ -10941,6 +11346,10 @@
       <c r="H100">
         <v>75</v>
       </c>
+      <c r="I100">
+        <f t="shared" si="1"/>
+        <v>18.171115674195754</v>
+      </c>
       <c r="J100">
         <v>28.943985309999999</v>
       </c>
@@ -11039,6 +11448,10 @@
       <c r="F101">
         <v>7.4442162902121831</v>
       </c>
+      <c r="I101">
+        <f t="shared" si="1"/>
+        <v>14.715947980835047</v>
+      </c>
       <c r="K101">
         <v>34.715947980835047</v>
       </c>
@@ -11137,6 +11550,10 @@
       <c r="H102">
         <v>73</v>
       </c>
+      <c r="I102">
+        <f t="shared" si="1"/>
+        <v>22.417522245037645</v>
+      </c>
       <c r="J102">
         <v>39.081726349999997</v>
       </c>
@@ -11232,6 +11649,10 @@
       <c r="E103">
         <v>10.392881587953456</v>
       </c>
+      <c r="I103">
+        <f t="shared" si="1"/>
+        <v>36.45722108145106</v>
+      </c>
       <c r="K103">
         <v>56.45722108145106</v>
       </c>
@@ -11330,6 +11751,10 @@
       <c r="H104">
         <v>44</v>
       </c>
+      <c r="I104">
+        <f t="shared" si="1"/>
+        <v>27.537303216974678</v>
+      </c>
       <c r="J104">
         <v>38.184116600000003</v>
       </c>
@@ -11431,6 +11856,10 @@
       <c r="H105">
         <v>85</v>
       </c>
+      <c r="I105">
+        <f t="shared" si="1"/>
+        <v>12.495550992470911</v>
+      </c>
       <c r="J105">
         <v>52.698961939999997</v>
       </c>
@@ -11532,6 +11961,10 @@
       <c r="H106">
         <v>77</v>
       </c>
+      <c r="I106">
+        <f t="shared" si="1"/>
+        <v>34.721423682409309</v>
+      </c>
       <c r="J106">
         <v>45.355102039999998</v>
       </c>
@@ -11630,6 +12063,10 @@
       <c r="F107">
         <v>10.242299794661191</v>
       </c>
+      <c r="I107">
+        <f t="shared" si="1"/>
+        <v>31.422313483915126</v>
+      </c>
       <c r="K107">
         <v>51.422313483915126</v>
       </c>
@@ -11728,6 +12165,10 @@
       <c r="H108">
         <v>74</v>
       </c>
+      <c r="I108">
+        <f t="shared" si="1"/>
+        <v>16.399726214921287</v>
+      </c>
       <c r="J108">
         <v>37.913427830000003</v>
       </c>
@@ -11829,6 +12270,10 @@
       <c r="H109">
         <v>79</v>
       </c>
+      <c r="I109">
+        <f t="shared" si="1"/>
+        <v>29.347022587268995</v>
+      </c>
       <c r="J109">
         <v>32.316759619999999</v>
       </c>
@@ -11930,6 +12375,10 @@
       <c r="H110">
         <v>75</v>
       </c>
+      <c r="I110">
+        <f t="shared" si="1"/>
+        <v>34.737850787132103</v>
+      </c>
       <c r="J110">
         <v>44.844290659999999</v>
       </c>
@@ -12031,6 +12480,10 @@
       <c r="H111">
         <v>85</v>
       </c>
+      <c r="I111">
+        <f t="shared" si="1"/>
+        <v>29.40999315537303</v>
+      </c>
       <c r="J111">
         <v>33.612883830000001</v>
       </c>
@@ -12126,6 +12579,10 @@
       <c r="E112">
         <v>0</v>
       </c>
+      <c r="I112">
+        <f t="shared" si="1"/>
+        <v>18.127310061601641</v>
+      </c>
       <c r="K112">
         <v>38.127310061601641</v>
       </c>
@@ -12227,6 +12684,10 @@
       <c r="H113">
         <v>71</v>
       </c>
+      <c r="I113">
+        <f t="shared" si="1"/>
+        <v>20.533880903490761</v>
+      </c>
       <c r="J113">
         <v>25.734393050000001</v>
       </c>
@@ -12322,6 +12783,10 @@
       <c r="E114">
         <v>10.52703627652293</v>
       </c>
+      <c r="I114">
+        <f t="shared" si="1"/>
+        <v>42.970568104038328</v>
+      </c>
       <c r="K114">
         <v>62.970568104038328</v>
       </c>
@@ -12414,6 +12879,10 @@
       <c r="E115">
         <v>6.0698151950718682</v>
       </c>
+      <c r="I115">
+        <f t="shared" si="1"/>
+        <v>19.392197125256672</v>
+      </c>
       <c r="K115">
         <v>39.392197125256672</v>
       </c>
@@ -12506,6 +12975,10 @@
       <c r="E116">
         <v>6.324435318275154</v>
       </c>
+      <c r="I116">
+        <f t="shared" si="1"/>
+        <v>26.970568104038328</v>
+      </c>
       <c r="K116">
         <v>46.970568104038328</v>
       </c>
@@ -12598,6 +13071,10 @@
       <c r="E117">
         <v>4.9171800136892543</v>
       </c>
+      <c r="I117">
+        <f t="shared" si="1"/>
+        <v>26.962354551676931</v>
+      </c>
       <c r="K117">
         <v>46.962354551676931</v>
       </c>
@@ -12696,6 +13173,10 @@
       <c r="H118">
         <v>76</v>
       </c>
+      <c r="I118">
+        <f t="shared" si="1"/>
+        <v>29.108829568788501</v>
+      </c>
       <c r="J118">
         <v>37.719645919999998</v>
       </c>
@@ -12800,6 +13281,10 @@
       <c r="H119">
         <v>90</v>
       </c>
+      <c r="I119">
+        <f t="shared" si="1"/>
+        <v>25.648186173853524</v>
+      </c>
       <c r="J119">
         <v>35.183827780000001</v>
       </c>
@@ -12901,6 +13386,10 @@
       <c r="H120">
         <v>76</v>
       </c>
+      <c r="I120">
+        <f t="shared" si="1"/>
+        <v>18.92950034223135</v>
+      </c>
       <c r="J120">
         <v>25.781926309999999</v>
       </c>
@@ -13002,6 +13491,10 @@
       <c r="H121">
         <v>77</v>
       </c>
+      <c r="I121">
+        <f t="shared" si="1"/>
+        <v>22.305270362765228</v>
+      </c>
       <c r="J121">
         <v>35.30991436</v>
       </c>
@@ -13103,6 +13596,10 @@
       <c r="H122">
         <v>70</v>
       </c>
+      <c r="I122">
+        <f t="shared" si="1"/>
+        <v>25.092402464065707</v>
+      </c>
       <c r="J122">
         <v>28.795184840000001</v>
       </c>
@@ -13204,6 +13701,10 @@
       <c r="H123">
         <v>84</v>
       </c>
+      <c r="I123">
+        <f t="shared" si="1"/>
+        <v>20.903490759753595</v>
+      </c>
       <c r="J123">
         <v>43.426531830000002</v>
       </c>
@@ -13308,6 +13809,10 @@
       <c r="H124">
         <v>71</v>
       </c>
+      <c r="I124">
+        <f t="shared" si="1"/>
+        <v>8.6324435318275157</v>
+      </c>
       <c r="J124">
         <v>39.929015079999999</v>
       </c>
@@ -13409,6 +13914,10 @@
       <c r="H125">
         <v>73</v>
       </c>
+      <c r="I125">
+        <f t="shared" si="1"/>
+        <v>16.750171115674199</v>
+      </c>
       <c r="J125">
         <v>43.874292349999997</v>
       </c>
@@ -13504,6 +14013,10 @@
       <c r="E126">
         <v>13.034907597535934</v>
       </c>
+      <c r="I126">
+        <f t="shared" si="1"/>
+        <v>27.663244353182755</v>
+      </c>
       <c r="K126">
         <v>47.663244353182755</v>
       </c>
@@ -13596,6 +14109,10 @@
       <c r="E127">
         <v>12.019164955509925</v>
       </c>
+      <c r="I127">
+        <f t="shared" si="1"/>
+        <v>30.269678302532512</v>
+      </c>
       <c r="K127">
         <v>50.269678302532512</v>
       </c>
@@ -13688,6 +14205,10 @@
       <c r="E128">
         <v>3.0472279260780288</v>
       </c>
+      <c r="I128">
+        <f t="shared" si="1"/>
+        <v>12.375085557837103</v>
+      </c>
       <c r="K128">
         <v>32.375085557837103</v>
       </c>
@@ -13789,6 +14310,10 @@
       <c r="H129">
         <v>91</v>
       </c>
+      <c r="I129">
+        <f t="shared" si="1"/>
+        <v>45.817932922655714</v>
+      </c>
       <c r="J129">
         <v>33.257023930000003</v>
       </c>
@@ -13890,6 +14415,10 @@
       <c r="H130">
         <v>71</v>
       </c>
+      <c r="I130">
+        <f t="shared" si="1"/>
+        <v>13.06228610540726</v>
+      </c>
       <c r="J130">
         <v>23.7109375</v>
       </c>
@@ -13994,6 +14523,10 @@
       <c r="H131">
         <v>72</v>
       </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I163" si="2">K131-20</f>
+        <v>20.550308008213555</v>
+      </c>
       <c r="J131">
         <v>28.008178699999998</v>
       </c>
@@ -14095,6 +14628,10 @@
       <c r="H132">
         <v>70</v>
       </c>
+      <c r="I132">
+        <f t="shared" si="2"/>
+        <v>14.335386721423681</v>
+      </c>
       <c r="J132">
         <v>36.746883660000002</v>
       </c>
@@ -14196,6 +14733,10 @@
       <c r="H133">
         <v>74</v>
       </c>
+      <c r="I133">
+        <f t="shared" si="2"/>
+        <v>18.518822724161531</v>
+      </c>
       <c r="J133">
         <v>46.204081629999997</v>
       </c>
@@ -14300,6 +14841,10 @@
       <c r="H134">
         <v>72</v>
       </c>
+      <c r="I134">
+        <f t="shared" si="2"/>
+        <v>26.891170431211499</v>
+      </c>
       <c r="J134">
         <v>25.673886110000002</v>
       </c>
@@ -14404,6 +14949,10 @@
       <c r="H135">
         <v>84</v>
       </c>
+      <c r="I135">
+        <f t="shared" si="2"/>
+        <v>22.521560574948666</v>
+      </c>
       <c r="J135">
         <v>30.07346939</v>
       </c>
@@ -14505,6 +15054,10 @@
       <c r="H136">
         <v>71</v>
       </c>
+      <c r="I136">
+        <f t="shared" si="2"/>
+        <v>11.885010266940451</v>
+      </c>
       <c r="J136">
         <v>31.055900619999999</v>
       </c>
@@ -14606,6 +15159,10 @@
       <c r="H137">
         <v>64</v>
       </c>
+      <c r="I137">
+        <f t="shared" si="2"/>
+        <v>12.492813141683776</v>
+      </c>
       <c r="J137">
         <v>32.159731749999999</v>
       </c>
@@ -14707,6 +15264,10 @@
       <c r="H138">
         <v>84</v>
       </c>
+      <c r="I138">
+        <f t="shared" si="2"/>
+        <v>15.244353182751539</v>
+      </c>
       <c r="J138">
         <v>27.724379509999999</v>
       </c>
@@ -14808,6 +15369,10 @@
       <c r="H139">
         <v>74</v>
       </c>
+      <c r="I139">
+        <f t="shared" si="2"/>
+        <v>14.392881587953454</v>
+      </c>
       <c r="J139">
         <v>34.049036280000003</v>
       </c>
@@ -14906,6 +15471,10 @@
       <c r="F140">
         <v>8.5366187542778924</v>
       </c>
+      <c r="I140">
+        <f t="shared" si="2"/>
+        <v>26.026009582477755</v>
+      </c>
       <c r="K140">
         <v>46.026009582477755</v>
       </c>
@@ -15004,6 +15573,10 @@
       <c r="H141">
         <v>86</v>
       </c>
+      <c r="I141">
+        <f t="shared" si="2"/>
+        <v>5.4291581108829554</v>
+      </c>
       <c r="J141">
         <v>46.255692359999998</v>
       </c>
@@ -15102,6 +15675,10 @@
       <c r="F142">
         <v>12.566735112936344</v>
       </c>
+      <c r="I142">
+        <f t="shared" si="2"/>
+        <v>28.142368240930871</v>
+      </c>
       <c r="K142">
         <v>48.142368240930871</v>
       </c>
@@ -15200,6 +15777,10 @@
       <c r="H143">
         <v>69</v>
       </c>
+      <c r="I143">
+        <f t="shared" si="2"/>
+        <v>11.819301848049282</v>
+      </c>
       <c r="J143">
         <v>42.6171875</v>
       </c>
@@ -15301,6 +15882,10 @@
       <c r="H144">
         <v>84</v>
       </c>
+      <c r="I144">
+        <f t="shared" si="2"/>
+        <v>11.455167693360711</v>
+      </c>
       <c r="J144">
         <v>46.840050869999999</v>
       </c>
@@ -15402,6 +15987,10 @@
       <c r="H145">
         <v>73</v>
       </c>
+      <c r="I145">
+        <f t="shared" si="2"/>
+        <v>16.769336071184121</v>
+      </c>
       <c r="J145">
         <v>32.870535179999997</v>
       </c>
@@ -15497,6 +16086,10 @@
       <c r="E146">
         <v>8.0054757015742641</v>
       </c>
+      <c r="I146">
+        <f t="shared" si="2"/>
+        <v>29.620807665982205</v>
+      </c>
       <c r="K146">
         <v>49.620807665982205</v>
       </c>
@@ -15589,6 +16182,10 @@
       <c r="E147">
         <v>8.0273785078713207</v>
       </c>
+      <c r="I147">
+        <f t="shared" si="2"/>
+        <v>32.706365503080079</v>
+      </c>
       <c r="K147">
         <v>52.706365503080079</v>
       </c>
@@ -15687,6 +16284,10 @@
       <c r="H148">
         <v>83</v>
       </c>
+      <c r="I148">
+        <f t="shared" si="2"/>
+        <v>18.228610540725533</v>
+      </c>
       <c r="J148">
         <v>56.094030959999998</v>
       </c>
@@ -15788,6 +16389,10 @@
       <c r="H149">
         <v>82</v>
       </c>
+      <c r="I149">
+        <f t="shared" si="2"/>
+        <v>10.99520876112252</v>
+      </c>
       <c r="J149">
         <v>28.20936639</v>
       </c>
@@ -15883,6 +16488,10 @@
       <c r="E150">
         <v>7.9890485968514717</v>
       </c>
+      <c r="I150">
+        <f t="shared" si="2"/>
+        <v>41.954825462012323</v>
+      </c>
       <c r="K150">
         <v>61.954825462012323</v>
       </c>
@@ -15981,6 +16590,10 @@
       <c r="H151">
         <v>74</v>
       </c>
+      <c r="I151">
+        <f t="shared" si="2"/>
+        <v>10.291581108829568</v>
+      </c>
       <c r="J151">
         <v>37.455310900000001</v>
       </c>
@@ -16082,6 +16695,10 @@
       <c r="H152">
         <v>79</v>
       </c>
+      <c r="I152">
+        <f t="shared" si="2"/>
+        <v>31.553730321697465</v>
+      </c>
       <c r="J152">
         <v>40.299709389999997</v>
       </c>
@@ -16186,6 +16803,10 @@
       <c r="H153">
         <v>69</v>
       </c>
+      <c r="I153">
+        <f t="shared" si="2"/>
+        <v>17.845311430527033</v>
+      </c>
       <c r="J153">
         <v>59.333095999999998</v>
       </c>
@@ -16287,6 +16908,10 @@
       <c r="H154">
         <v>77</v>
       </c>
+      <c r="I154">
+        <f t="shared" si="2"/>
+        <v>28.481861738535251</v>
+      </c>
       <c r="J154">
         <v>40.027339910000002</v>
       </c>
@@ -16388,6 +17013,10 @@
       <c r="H155">
         <v>65</v>
       </c>
+      <c r="I155">
+        <f t="shared" si="2"/>
+        <v>17.138945927446954</v>
+      </c>
       <c r="J155">
         <v>44.260789719999998</v>
       </c>
@@ -16492,6 +17121,10 @@
       <c r="H156">
         <v>70</v>
       </c>
+      <c r="I156">
+        <f t="shared" si="2"/>
+        <v>23.362080766598226</v>
+      </c>
       <c r="J156">
         <v>38.007816699999999</v>
       </c>
@@ -16593,6 +17226,10 @@
       <c r="H157">
         <v>86</v>
       </c>
+      <c r="I157">
+        <f t="shared" si="2"/>
+        <v>22.518822724161538</v>
+      </c>
       <c r="J157">
         <v>44.81782552</v>
       </c>
@@ -16694,6 +17331,10 @@
       <c r="H158">
         <v>80</v>
       </c>
+      <c r="I158">
+        <f t="shared" si="2"/>
+        <v>34.75427789185489</v>
+      </c>
       <c r="J158">
         <v>43.842549839999997</v>
       </c>
@@ -16795,6 +17436,10 @@
       <c r="H159">
         <v>86</v>
       </c>
+      <c r="I159">
+        <f t="shared" si="2"/>
+        <v>31.184120465434631</v>
+      </c>
       <c r="J159">
         <v>37.568712580000003</v>
       </c>
@@ -16896,6 +17541,10 @@
       <c r="H160">
         <v>78</v>
       </c>
+      <c r="I160">
+        <f t="shared" si="2"/>
+        <v>9.075975359342916</v>
+      </c>
       <c r="J160">
         <v>28.58686007</v>
       </c>
@@ -16997,6 +17646,10 @@
       <c r="H161">
         <v>67</v>
       </c>
+      <c r="I161">
+        <f t="shared" si="2"/>
+        <v>23.394934976043807</v>
+      </c>
       <c r="J161">
         <v>41.38098909</v>
       </c>
@@ -17098,6 +17751,10 @@
       <c r="H162">
         <v>79</v>
       </c>
+      <c r="I162">
+        <f t="shared" si="2"/>
+        <v>22.162902121834357</v>
+      </c>
       <c r="J162">
         <v>29.696262560000001</v>
       </c>
@@ -17198,6 +17855,10 @@
       </c>
       <c r="H163">
         <v>70</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="2"/>
+        <v>26.502395619438744</v>
       </c>
       <c r="J163">
         <v>32.401902499999998</v>
